--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1907.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1907.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.959840080139127</v>
+        <v>1.908057570457458</v>
       </c>
       <c r="B1">
-        <v>3.03236577172621</v>
+        <v>3.664223432540894</v>
       </c>
       <c r="C1">
-        <v>2.539880683867658</v>
+        <v>2.633979320526123</v>
       </c>
       <c r="D1">
-        <v>2.082596700553629</v>
+        <v>0.9479213356971741</v>
       </c>
       <c r="E1">
-        <v>1.397550854949266</v>
+        <v>0.6215535402297974</v>
       </c>
     </row>
   </sheetData>
